--- a/data/trans_dic/P36B08_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7493003494208547</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9270201125254987</v>
+        <v>0.9270201125254985</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6976288691726777</v>
@@ -685,7 +685,7 @@
         <v>0.7614816238448898</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9442942939830071</v>
+        <v>0.9442942939830069</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6467008975182493</v>
@@ -697,7 +697,7 @@
         <v>0.755728368843809</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9366245250768649</v>
+        <v>0.9366245250768646</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5247616684420101</v>
+        <v>0.5223265220357453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5963139958135082</v>
+        <v>0.5961559080595475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7239561744627577</v>
+        <v>0.7210954886294149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8966956273384953</v>
+        <v>0.8973590394648724</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6658798073160136</v>
+        <v>0.6681768406731161</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6841778462418852</v>
+        <v>0.6769560453868813</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7359047232562046</v>
+        <v>0.7375632058309093</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9225570195551425</v>
+        <v>0.9219106759600624</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6214810386330726</v>
+        <v>0.621821229209599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6485292139279079</v>
+        <v>0.6492153650374299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7379447429474381</v>
+        <v>0.7355017144265044</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.920282463012685</v>
+        <v>0.918096382058068</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6089069019112933</v>
+        <v>0.6060366342111068</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6583690383192002</v>
+        <v>0.6572420831672401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7739529909821501</v>
+        <v>0.775907573794565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9509248263295873</v>
+        <v>0.9494706646661845</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7271082897257743</v>
+        <v>0.7298679316182516</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7421290797363688</v>
+        <v>0.7348749470765539</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7847016939717973</v>
+        <v>0.7860889232408461</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9590932225571827</v>
+        <v>0.9599437488803041</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6713134970097175</v>
+        <v>0.671111489434837</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6914219548018385</v>
+        <v>0.6926201901746268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7752125975161046</v>
+        <v>0.7725170640837591</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9502492436404092</v>
+        <v>0.9506007920378893</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.691522158409793</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9636986396087081</v>
+        <v>0.9636986396087079</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7111828471278884</v>
@@ -833,7 +833,7 @@
         <v>0.735320148895912</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9644367235999721</v>
+        <v>0.9644367235999722</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6100998516917315</v>
+        <v>0.6127301787331252</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6838658445067376</v>
+        <v>0.689155099888304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6595559049615465</v>
+        <v>0.659085593830587</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9478564379844453</v>
+        <v>0.9490351864372215</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6805075384548975</v>
+        <v>0.6810407222568527</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.785543527293081</v>
+        <v>0.7849491679406233</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7472385344463547</v>
+        <v>0.7475077823823457</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9542995361800397</v>
+        <v>0.9548193088989312</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6546966714803686</v>
+        <v>0.6551346536950274</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7461341781743169</v>
+        <v>0.7479731253877286</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7137582150781491</v>
+        <v>0.7156375565081485</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9554818217811956</v>
+        <v>0.9559549560746547</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6670302678042214</v>
+        <v>0.6705420120894372</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.744531334816067</v>
+        <v>0.7442096669862968</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7228312039603623</v>
+        <v>0.7225274737130664</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9747423348556642</v>
+        <v>0.9751879435422536</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7372612372739517</v>
+        <v>0.739286035066457</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8328896874793053</v>
+        <v>0.8332905430166599</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8000271997698322</v>
+        <v>0.8026833553817763</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9739330489980895</v>
+        <v>0.9738630605715974</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6967255422877408</v>
+        <v>0.6955645025280985</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7853031577985834</v>
+        <v>0.7837926806803629</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7538145555879306</v>
+        <v>0.7563439931434057</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9721396815232892</v>
+        <v>0.9714465697602636</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.7680494270890711</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9616694170607171</v>
+        <v>0.961669417060717</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6800855341911239</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6242802812038061</v>
+        <v>0.6256852113991764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7326076787801844</v>
+        <v>0.7375260247290191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6835125277371856</v>
+        <v>0.6846642023006108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9102815098660015</v>
+        <v>0.9085766658357221</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6814796578915155</v>
+        <v>0.6832215878468519</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.827653052751128</v>
+        <v>0.8290430014503694</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7361006455313321</v>
+        <v>0.7341414688962157</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9487173053702055</v>
+        <v>0.9493013750585819</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6593705980047888</v>
+        <v>0.6613823429022576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7922585752107609</v>
+        <v>0.7912321589721727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7175960891663739</v>
+        <v>0.7201521059461103</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9329726393895534</v>
+        <v>0.9333099734804509</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.680960705808614</v>
+        <v>0.6836500049126225</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7931301677456488</v>
+        <v>0.7940926662126555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7482425516732213</v>
+        <v>0.7496089738602373</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9466610448103278</v>
+        <v>0.9475874490713762</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7415788823501788</v>
+        <v>0.7401986725553448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8757322076818019</v>
+        <v>0.8760665591300694</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7975764906392808</v>
+        <v>0.7968225578600251</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9719994173708429</v>
+        <v>0.9721334609395904</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6993057883654541</v>
+        <v>0.7015171894543509</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8298697637290006</v>
+        <v>0.8301195314154532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7650770514746106</v>
+        <v>0.7629381134792005</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9556118228093213</v>
+        <v>0.9547692143213548</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7262063728085161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9465224539093451</v>
+        <v>0.946522453909345</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7443011591551246</v>
@@ -1093,7 +1093,7 @@
         <v>0.8197087129993735</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9546475509899935</v>
+        <v>0.9546475509899933</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6936185111508737</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.605340098067176</v>
+        <v>0.610253369388427</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7398413636148414</v>
+        <v>0.7399581765523727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6853755302016791</v>
+        <v>0.6857740644894837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.924986444881933</v>
+        <v>0.9248224388185842</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6909914059622765</v>
+        <v>0.6902154600549963</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8164701790657488</v>
+        <v>0.8198977621404501</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7823358970080136</v>
+        <v>0.782615193482791</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9380860286665931</v>
+        <v>0.9364803438479351</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6569567492652523</v>
+        <v>0.6602610238045524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7883352569209878</v>
+        <v>0.7907183103557607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7432529120062632</v>
+        <v>0.745943662031528</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9375500724049137</v>
+        <v>0.937078127399282</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.698170072489033</v>
+        <v>0.7023063007921201</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8141754585185493</v>
+        <v>0.8186562124852987</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.76385944702078</v>
+        <v>0.7649947238125194</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9612771849013997</v>
+        <v>0.9621523741219303</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7851113274346131</v>
+        <v>0.7887064979152852</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8856169465785154</v>
+        <v>0.8844463569100279</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8511433728562372</v>
+        <v>0.8555391049273738</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9668533124641349</v>
+        <v>0.965996698182654</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7236262862514312</v>
+        <v>0.7248678303016175</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8433683642260641</v>
+        <v>0.842455708251081</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7989582812328017</v>
+        <v>0.8010064136280107</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.961311650102942</v>
+        <v>0.9616355122196932</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.7747861643649604</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9580356985820792</v>
+        <v>0.9580356985820793</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6725054594886798</v>
@@ -1241,7 +1241,7 @@
         <v>0.7492837423762289</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9510645681692868</v>
+        <v>0.9510645681692869</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6166056799958811</v>
+        <v>0.6168709837765968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6960145318097855</v>
+        <v>0.6951304456713004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7064938682004424</v>
+        <v>0.7079438601261837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9338723047706043</v>
+        <v>0.9346095958487768</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6943942817465121</v>
+        <v>0.6940357703574062</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7814326158261012</v>
+        <v>0.7810450132026288</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7598035699041021</v>
+        <v>0.758762783519372</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9512668094467793</v>
+        <v>0.9507560397280201</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.660931805856338</v>
+        <v>0.6603541294757352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7437178346672814</v>
+        <v>0.7440906100890027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7380247929696878</v>
+        <v>0.7393492215557416</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9443662824977087</v>
+        <v>0.94474852305886</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.650647683675263</v>
+        <v>0.6506615017448738</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7268281973478318</v>
+        <v>0.7272148413206713</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7389333432245543</v>
+        <v>0.7386868329186757</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9516838010285321</v>
+        <v>0.9523742001206117</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7257955067073364</v>
+        <v>0.7267833098002324</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8089989528109489</v>
+        <v>0.8086162275669744</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7882166495737989</v>
+        <v>0.7887191537647226</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9648035303361097</v>
+        <v>0.9636573155746447</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6842647502450468</v>
+        <v>0.6842255696687241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7651089438645725</v>
+        <v>0.764777473426546</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7600341197038532</v>
+        <v>0.7597397069375496</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9557777475936592</v>
+        <v>0.955812562501978</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>306097</v>
+        <v>304677</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>621272</v>
+        <v>621107</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>811346</v>
+        <v>808140</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>446528</v>
+        <v>446859</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>614163</v>
+        <v>616282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>766230</v>
+        <v>758142</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>921465</v>
+        <v>923542</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>575288</v>
+        <v>574885</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>935727</v>
+        <v>936239</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1401979</v>
+        <v>1403463</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1751043</v>
+        <v>1745246</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1032144</v>
+        <v>1029692</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>355180</v>
+        <v>353505</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>685924</v>
+        <v>684750</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>867378</v>
+        <v>869568</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>473533</v>
+        <v>472809</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>670636</v>
+        <v>673181</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>831131</v>
+        <v>823007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>982567</v>
+        <v>984304</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>598071</v>
+        <v>598602</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1010756</v>
+        <v>1010452</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1494704</v>
+        <v>1497295</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1839474</v>
+        <v>1833078</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1065753</v>
+        <v>1066147</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>657623</v>
+        <v>660458</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>666812</v>
+        <v>671970</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>594871</v>
+        <v>594447</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>909120</v>
+        <v>910251</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>719663</v>
+        <v>720226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>858078</v>
+        <v>857429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>750359</v>
+        <v>750629</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1063816</v>
+        <v>1064395</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1398060</v>
+        <v>1398996</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1542558</v>
+        <v>1546360</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1360496</v>
+        <v>1364078</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1981568</v>
+        <v>1982549</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>718988</v>
+        <v>722773</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>725965</v>
+        <v>725651</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>651941</v>
+        <v>651667</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>934908</v>
+        <v>935335</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>779682</v>
+        <v>781823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>909796</v>
+        <v>910234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>803368</v>
+        <v>806035</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1085703</v>
+        <v>1085625</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1487810</v>
+        <v>1485331</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1623536</v>
+        <v>1620413</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1436847</v>
+        <v>1441669</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2016115</v>
+        <v>2014677</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>700189</v>
+        <v>701765</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>646943</v>
+        <v>651286</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>561003</v>
+        <v>561948</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>951934</v>
+        <v>950151</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>676628</v>
+        <v>678357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>723903</v>
+        <v>725119</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>563919</v>
+        <v>562418</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>991957</v>
+        <v>992568</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1394222</v>
+        <v>1398476</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1392565</v>
+        <v>1390761</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1138720</v>
+        <v>1142776</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1951158</v>
+        <v>1951864</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>763761</v>
+        <v>766778</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>700389</v>
+        <v>701239</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>614131</v>
+        <v>615253</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>989978</v>
+        <v>990947</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>736299</v>
+        <v>734928</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>765956</v>
+        <v>766248</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>611015</v>
+        <v>610437</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1016300</v>
+        <v>1016440</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1478664</v>
+        <v>1483340</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1458675</v>
+        <v>1459114</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1214066</v>
+        <v>1210671</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1998504</v>
+        <v>1996742</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>270708</v>
+        <v>272905</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>371365</v>
+        <v>371423</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>347280</v>
+        <v>347482</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>902721</v>
+        <v>902561</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>235737</v>
+        <v>235473</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>364128</v>
+        <v>365656</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>382238</v>
+        <v>382374</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>851106</v>
+        <v>849649</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>517917</v>
+        <v>520522</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>747287</v>
+        <v>749546</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>739749</v>
+        <v>742427</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1765602</v>
+        <v>1764713</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>312222</v>
+        <v>314071</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>408677</v>
+        <v>410926</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>387048</v>
+        <v>387624</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>938138</v>
+        <v>938992</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>267847</v>
+        <v>269074</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>394966</v>
+        <v>394444</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>415856</v>
+        <v>418004</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>877206</v>
+        <v>876429</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>570477</v>
+        <v>571455</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>799454</v>
+        <v>798589</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>795192</v>
+        <v>797230</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1810350</v>
+        <v>1810960</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1991633</v>
+        <v>1992490</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2367798</v>
+        <v>2364791</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2366827</v>
+        <v>2371685</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3248747</v>
+        <v>3251311</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2301159</v>
+        <v>2299971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2760715</v>
+        <v>2759346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2667673</v>
+        <v>2664018</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3511313</v>
+        <v>3509428</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4325074</v>
+        <v>4321294</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5157555</v>
+        <v>5160140</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5063667</v>
+        <v>5072754</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6771095</v>
+        <v>6773836</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2101589</v>
+        <v>2101633</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2472624</v>
+        <v>2473940</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2475503</v>
+        <v>2474677</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3310709</v>
+        <v>3313111</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2405220</v>
+        <v>2408494</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2858104</v>
+        <v>2856752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2767431</v>
+        <v>2769195</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3561280</v>
+        <v>3557049</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4477763</v>
+        <v>4477506</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5305899</v>
+        <v>5303600</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5214675</v>
+        <v>5212655</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6852915</v>
+        <v>6853165</v>
       </c>
     </row>
     <row r="24">
